--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Hcrt</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.6051576666666666</v>
+      </c>
+      <c r="H2">
+        <v>1.815473</v>
+      </c>
+      <c r="I2">
+        <v>0.575135406723878</v>
+      </c>
+      <c r="J2">
+        <v>0.575135406723878</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.2056186666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.6168560000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.2332212576547134</v>
-      </c>
-      <c r="J2">
-        <v>0.2332212576547134</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.3672373333333334</v>
+        <v>0.6609660000000001</v>
       </c>
       <c r="N2">
-        <v>1.101712</v>
+        <v>1.982898</v>
       </c>
       <c r="O2">
-        <v>0.7884238850403619</v>
+        <v>0.8866694927077409</v>
       </c>
       <c r="P2">
-        <v>0.7884238850403618</v>
+        <v>0.8866694927077408</v>
       </c>
       <c r="Q2">
-        <v>0.07551085083022224</v>
+        <v>0.399988642306</v>
       </c>
       <c r="R2">
-        <v>0.6795976574720001</v>
+        <v>3.599897780754</v>
       </c>
       <c r="S2">
-        <v>0.1838772100341284</v>
+        <v>0.5099550193181211</v>
       </c>
       <c r="T2">
-        <v>0.1838772100341284</v>
+        <v>0.509955019318121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2056186666666667</v>
+        <v>0.6051576666666666</v>
       </c>
       <c r="H3">
-        <v>0.6168560000000001</v>
+        <v>1.815473</v>
       </c>
       <c r="I3">
-        <v>0.2332212576547134</v>
+        <v>0.575135406723878</v>
       </c>
       <c r="J3">
-        <v>0.2332212576547134</v>
+        <v>0.575135406723878</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>0.191129</v>
       </c>
       <c r="O3">
-        <v>0.136778639720616</v>
+        <v>0.08546493741571064</v>
       </c>
       <c r="P3">
-        <v>0.136778639720616</v>
+        <v>0.08546493741571062</v>
       </c>
       <c r="Q3">
-        <v>0.01309989671377778</v>
+        <v>0.0385543932241111</v>
       </c>
       <c r="R3">
-        <v>0.117899070424</v>
+        <v>0.346989539017</v>
       </c>
       <c r="S3">
-        <v>0.03189968637594301</v>
+        <v>0.04915391154121551</v>
       </c>
       <c r="T3">
-        <v>0.031899686375943</v>
+        <v>0.0491539115412155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.6051576666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.815473</v>
+      </c>
+      <c r="I4">
+        <v>0.575135406723878</v>
+      </c>
+      <c r="J4">
+        <v>0.575135406723878</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.2056186666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.6168560000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.2332212576547134</v>
-      </c>
-      <c r="J4">
-        <v>0.2332212576547134</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.03483966666666666</v>
+        <v>0.02077233333333333</v>
       </c>
       <c r="N4">
-        <v>0.104519</v>
+        <v>0.062317</v>
       </c>
       <c r="O4">
-        <v>0.07479747523902215</v>
+        <v>0.02786556987654851</v>
       </c>
       <c r="P4">
-        <v>0.07479747523902214</v>
+        <v>0.0278655698765485</v>
       </c>
       <c r="Q4">
-        <v>0.007163685807111112</v>
+        <v>0.01257053677122222</v>
       </c>
       <c r="R4">
-        <v>0.064473172264</v>
+        <v>0.113134830941</v>
       </c>
       <c r="S4">
-        <v>0.01744436124464203</v>
+        <v>0.01602647586454137</v>
       </c>
       <c r="T4">
-        <v>0.01744436124464203</v>
+        <v>0.01602647586454137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +726,40 @@
         <v>1.341128</v>
       </c>
       <c r="I5">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="J5">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3672373333333334</v>
+        <v>0.6609660000000001</v>
       </c>
       <c r="N5">
-        <v>1.101712</v>
+        <v>1.982898</v>
       </c>
       <c r="O5">
-        <v>0.7884238850403619</v>
+        <v>0.8866694927077409</v>
       </c>
       <c r="P5">
-        <v>0.7884238850403618</v>
+        <v>0.8866694927077408</v>
       </c>
       <c r="Q5">
-        <v>0.1641707567928889</v>
+        <v>0.295480003216</v>
       </c>
       <c r="R5">
-        <v>1.477536811136</v>
+        <v>2.659320028944</v>
       </c>
       <c r="S5">
-        <v>0.3997738125894058</v>
+        <v>0.3767144733896198</v>
       </c>
       <c r="T5">
-        <v>0.3997738125894058</v>
+        <v>0.3767144733896197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>1.341128</v>
       </c>
       <c r="I6">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="J6">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +806,10 @@
         <v>0.191129</v>
       </c>
       <c r="O6">
-        <v>0.136778639720616</v>
+        <v>0.08546493741571064</v>
       </c>
       <c r="P6">
-        <v>0.136778639720616</v>
+        <v>0.08546493741571062</v>
       </c>
       <c r="Q6">
         <v>0.02848093927911111</v>
@@ -821,10 +818,10 @@
         <v>0.256328453512</v>
       </c>
       <c r="S6">
-        <v>0.06935421328477909</v>
+        <v>0.03631102587449513</v>
       </c>
       <c r="T6">
-        <v>0.06935421328477907</v>
+        <v>0.03631102587449511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,226 +850,40 @@
         <v>1.341128</v>
       </c>
       <c r="I7">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="J7">
-        <v>0.5070544159997641</v>
+        <v>0.424864593276122</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03483966666666666</v>
+        <v>0.02077233333333333</v>
       </c>
       <c r="N7">
-        <v>0.104519</v>
+        <v>0.062317</v>
       </c>
       <c r="O7">
-        <v>0.07479747523902215</v>
+        <v>0.02786556987654851</v>
       </c>
       <c r="P7">
-        <v>0.07479747523902214</v>
+        <v>0.0278655698765485</v>
       </c>
       <c r="Q7">
-        <v>0.01557481749244444</v>
+        <v>0.009286119286222222</v>
       </c>
       <c r="R7">
-        <v>0.140173357432</v>
+        <v>0.08357507357599998</v>
       </c>
       <c r="S7">
-        <v>0.03792639012557919</v>
+        <v>0.01183909401200714</v>
       </c>
       <c r="T7">
-        <v>0.03792639012557918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.228985</v>
-      </c>
-      <c r="H8">
-        <v>0.686955</v>
-      </c>
-      <c r="I8">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="J8">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.3672373333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.101712</v>
-      </c>
-      <c r="O8">
-        <v>0.7884238850403619</v>
-      </c>
-      <c r="P8">
-        <v>0.7884238850403618</v>
-      </c>
-      <c r="Q8">
-        <v>0.08409184077333334</v>
-      </c>
-      <c r="R8">
-        <v>0.7568265669599999</v>
-      </c>
-      <c r="S8">
-        <v>0.2047728624168277</v>
-      </c>
-      <c r="T8">
-        <v>0.2047728624168276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.228985</v>
-      </c>
-      <c r="H9">
-        <v>0.686955</v>
-      </c>
-      <c r="I9">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="J9">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06370966666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.191129</v>
-      </c>
-      <c r="O9">
-        <v>0.136778639720616</v>
-      </c>
-      <c r="P9">
-        <v>0.136778639720616</v>
-      </c>
-      <c r="Q9">
-        <v>0.01458855802166667</v>
-      </c>
-      <c r="R9">
-        <v>0.131297022195</v>
-      </c>
-      <c r="S9">
-        <v>0.03552474005989392</v>
-      </c>
-      <c r="T9">
-        <v>0.03552474005989392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.228985</v>
-      </c>
-      <c r="H10">
-        <v>0.686955</v>
-      </c>
-      <c r="I10">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="J10">
-        <v>0.2597243263455225</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.03483966666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.104519</v>
-      </c>
-      <c r="O10">
-        <v>0.07479747523902215</v>
-      </c>
-      <c r="P10">
-        <v>0.07479747523902214</v>
-      </c>
-      <c r="Q10">
-        <v>0.007977761071666666</v>
-      </c>
-      <c r="R10">
-        <v>0.07179984964499998</v>
-      </c>
-      <c r="S10">
-        <v>0.01942672386880093</v>
-      </c>
-      <c r="T10">
-        <v>0.01942672386880092</v>
+        <v>0.01183909401200714</v>
       </c>
     </row>
   </sheetData>
